--- a/resources/train_schedule_red.xlsx
+++ b/resources/train_schedule_red.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/School/Systems Engineering/projects/ECE1140-Project/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/School/Systems Engineering/projects/ECE1140-Project/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B11701-6992-2743-BC77-730FF7EA9DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC97645-7853-3044-9A9D-7991C68BBFB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{9CCCE8CB-C825-E347-AA21-A6346E2A08CF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{9CCCE8CB-C825-E347-AA21-A6346E2A08CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
   <dimension ref="A1:Q143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,43 +627,43 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="7">
-        <v>0.19444444444444445</v>
+        <v>0.19583333333333333</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" ref="F2:N2" si="0">E2+$E$143</f>
-        <v>0.21527777777777779</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" si="0"/>
-        <v>0.23611111111111113</v>
+        <v>0.23750000000000002</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
-        <v>0.25694444444444448</v>
+        <v>0.25833333333333336</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" si="0"/>
-        <v>0.27777777777777779</v>
+        <v>0.27916666666666667</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" si="0"/>
-        <v>0.2986111111111111</v>
+        <v>0.3</v>
       </c>
       <c r="K2" s="7">
         <f t="shared" si="0"/>
-        <v>0.31944444444444442</v>
+        <v>0.3208333333333333</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" si="0"/>
-        <v>0.34027777777777773</v>
+        <v>0.34166666666666662</v>
       </c>
       <c r="M2" s="7">
         <f t="shared" si="0"/>
-        <v>0.36111111111111105</v>
+        <v>0.36249999999999993</v>
       </c>
       <c r="N2" s="7">
         <f t="shared" si="0"/>
-        <v>0.38194444444444436</v>
+        <v>0.38333333333333325</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="34" x14ac:dyDescent="0.2">
@@ -2488,7 +2488,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
-        <f t="shared" ref="A68:A131" si="11">A67</f>
+        <f t="shared" ref="A68:A76" si="11">A67</f>
         <v>Red</v>
       </c>
       <c r="B68" s="3" t="s">
